--- a/medicine/Enfance/Olivier_Cohen/Olivier_Cohen.xlsx
+++ b/medicine/Enfance/Olivier_Cohen/Olivier_Cohen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Olivier Cohen, né le 4 septembre 1949, est un éditeur et écrivain français, fondateur de la maison d'édition Éditions de l'Olivier (en 1991[1]).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olivier Cohen, né le 4 septembre 1949, est un éditeur et écrivain français, fondateur de la maison d'édition Éditions de l'Olivier (en 1991).
 </t>
         </is>
       </c>
@@ -511,15 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Olivier Cohen est ancien élève de l'École normale supérieure de Saint-Cloud[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olivier Cohen est ancien élève de l'École normale supérieure de Saint-Cloud,.
 Il a été directeur des éditions Payot (en 1989) et des éditions du Seuil (en 2004).
 Il écrit également sous le pseudonyme d’Oscar Klinger.
-Prise de position
-En 2007, il appelle à voter pour Ségolène Royal, dans un texte publié dans Le Nouvel Observateur, « contre une droite d’arrogance », pour « une gauche d’espérance »[4].
-Vie privée
-Olivier Cohen a trois enfants dont le musicien Benjamin Diamond.
 </t>
         </is>
       </c>
@@ -545,10 +555,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Prise de position</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2007, il appelle à voter pour Ségolène Royal, dans un texte publié dans Le Nouvel Observateur, « contre une droite d’arrogance », pour « une gauche d’espérance ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olivier_Cohen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Cohen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olivier Cohen a trois enfants dont le musicien Benjamin Diamond.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olivier_Cohen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Cohen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Je m'appelle Dracula, Le Livre de poche - Jeunesse, 1988  (ISBN 978-2-253-04124-5)
 La Fiancée de Dracula, Hachette, 1988  (Le Livre de poche - Jeunesse)  (ISBN 978-2-01-013843-0).</t>
